--- a/cities.xlsx
+++ b/cities.xlsx
@@ -37,37 +37,37 @@
     <t>Canada</t>
   </si>
   <si>
+    <t>Marakesh</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Los Cabos</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>Archipelago Sea</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Pyeongchang</t>
   </si>
   <si>
     <t>South Korea</t>
-  </si>
-  <si>
-    <t>Marakesh</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Los Cabos</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>Archipelago Sea</t>
-  </si>
-  <si>
-    <t>Finland</t>
   </si>
   <si>
     <t>Walla Walla Valley</t>
@@ -435,38 +435,38 @@
         <v>9</v>
       </c>
       <c r="C4" s="5">
-        <v>43666.0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1464.0</v>
+        <v>928850.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>230.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
-        <v>928850.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>230.0</v>
+        <v>558545.0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>491.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5">
-        <v>558545.0</v>
+        <v>287671.0</v>
       </c>
       <c r="D6" s="6">
-        <v>491.0</v>
+        <v>3751.0</v>
       </c>
     </row>
     <row r="7">
@@ -474,27 +474,27 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>287671.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3751.0</v>
+        <v>93137.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>68.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="5">
-        <v>93137.0</v>
+        <v>60000.0</v>
       </c>
       <c r="D8" s="5">
-        <v>68.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="9">
@@ -505,10 +505,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="5">
-        <v>60000.0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2000.0</v>
+        <v>43666.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1464.0</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5">
         <v>32986.0</v>

--- a/cities.xlsx
+++ b/cities.xlsx
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -114,6 +114,7 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <name val="Arial"/>
@@ -139,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -156,9 +157,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -407,9 +411,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>2891082.0</v>
-      </c>
-      <c r="D2" s="5">
+        <v>2891.0</v>
+      </c>
+      <c r="D2" s="6">
         <v>203.0</v>
       </c>
     </row>
@@ -421,9 +425,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>2731571.0</v>
-      </c>
-      <c r="D3" s="6">
+        <v>2732.0</v>
+      </c>
+      <c r="D3" s="7">
         <v>630.0</v>
       </c>
     </row>
@@ -435,9 +439,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="5">
-        <v>928850.0</v>
-      </c>
-      <c r="D4" s="5">
+        <v>929.0</v>
+      </c>
+      <c r="D4" s="6">
         <v>230.0</v>
       </c>
     </row>
@@ -445,13 +449,13 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
-        <v>558545.0</v>
-      </c>
-      <c r="D5" s="6">
+        <v>559.0</v>
+      </c>
+      <c r="D5" s="7">
         <v>491.0</v>
       </c>
     </row>
@@ -463,9 +467,9 @@
         <v>13</v>
       </c>
       <c r="C6" s="5">
-        <v>287671.0</v>
-      </c>
-      <c r="D6" s="6">
+        <v>288.0</v>
+      </c>
+      <c r="D6" s="7">
         <v>3751.0</v>
       </c>
     </row>
@@ -477,9 +481,9 @@
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>93137.0</v>
-      </c>
-      <c r="D7" s="5">
+        <v>93.0</v>
+      </c>
+      <c r="D7" s="6">
         <v>68.0</v>
       </c>
     </row>
@@ -491,9 +495,9 @@
         <v>16</v>
       </c>
       <c r="C8" s="5">
-        <v>60000.0</v>
-      </c>
-      <c r="D8" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D8" s="6">
         <v>2000.0</v>
       </c>
     </row>
@@ -505,9 +509,9 @@
         <v>18</v>
       </c>
       <c r="C9" s="5">
-        <v>43666.0</v>
-      </c>
-      <c r="D9" s="6">
+        <v>44.0</v>
+      </c>
+      <c r="D9" s="7">
         <v>1464.0</v>
       </c>
     </row>
@@ -519,9 +523,9 @@
         <v>11</v>
       </c>
       <c r="C10" s="5">
-        <v>32986.0</v>
-      </c>
-      <c r="D10" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="D10" s="7">
         <v>35.0</v>
       </c>
     </row>
@@ -533,9 +537,9 @@
         <v>21</v>
       </c>
       <c r="C11" s="5">
-        <v>2598.0</v>
-      </c>
-      <c r="D11" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="7">
         <v>26.0</v>
       </c>
     </row>
@@ -547,9 +551,9 @@
         <v>23</v>
       </c>
       <c r="C12" s="5">
-        <v>1700.0</v>
-      </c>
-      <c r="D12" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="7">
         <v>59.0</v>
       </c>
     </row>
@@ -563,7 +567,7 @@
       <c r="C13" s="5">
         <v>0.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>2396.0</v>
       </c>
     </row>
